--- a/biology/Botanique/Boscia_albitrunca/Boscia_albitrunca.xlsx
+++ b/biology/Botanique/Boscia_albitrunca/Boscia_albitrunca.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Boscia albitrunca (Burch.) Gilg &amp; Benedict, également connu sous le nom de « shepherd's bush » en anglais, omunkuzi en oshivambo, omungwindi en héréro ou witgatboom en afrikaans[2], est une espèce de plantes à fleurs du genre Boscia et de la famille des Capparaceae. C'est un arbuste présent en Afrique australe (Afrique du Sud, Botswana, Namibie, Zambie).
-Boscia doit son nom au botaniste français Louis-Augustin Bosc d'Antic[3]. L'épithète spécifique albitrunca fait référence à son tronc clair, voire blanc.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Boscia albitrunca (Burch.) Gilg &amp; Benedict, également connu sous le nom de « shepherd's bush » en anglais, omunkuzi en oshivambo, omungwindi en héréro ou witgatboom en afrikaans, est une espèce de plantes à fleurs du genre Boscia et de la famille des Capparaceae. C'est un arbuste présent en Afrique australe (Afrique du Sud, Botswana, Namibie, Zambie).
+Boscia doit son nom au botaniste français Louis-Augustin Bosc d'Antic. L'épithète spécifique albitrunca fait référence à son tronc clair, voire blanc.
 </t>
         </is>
       </c>
@@ -512,13 +524,15 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (9 janvier 2017)[4] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (9 janvier 2017) :
 variété Boscia albitrunca var. macrophylla Tölken
-Selon The Plant List            (9 janvier 2017)[1] :
+Selon The Plant List            (9 janvier 2017) :
 variété Boscia albitrunca var. albitrunca
-Selon Tropicos                                           (9 janvier 2017)[5] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (9 janvier 2017) (Attention liste brute contenant possiblement des synonymes) :
 variété Boscia albitrunca var. albitrunca
 variété Boscia albitrunca var. macrophylla Toelken</t>
         </is>
